--- a/biology/Histoire de la zoologie et de la botanique/Harold_Emery_Moore/Harold_Emery_Moore.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Harold_Emery_Moore/Harold_Emery_Moore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Harold Emery Moore, Jr. (7 juillet 1917 - 27 octobre 1980) était un botaniste américain particulièrement connu pour son travail sur la systématique de la famille des palmiers. 
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été directeur de l'Hortorium L. H. Bailey à l'Université Cornell et a été nommé professeur de botanique à Liberty Hyde Bailey en 1978. Il a été un contributeur important à Hortus Third et a été rédacteur en chef du journal des palmiers Principes (maintenant Palms). Il a également édité Gentes Herbarum et a fourni la fondation pour la première édition de Genera Palmarum, un travail séminal sur la taxonomie des palmiers qui a été plus tard complété par Natalie Uhl et John Dransfield.
 Moore est né au Massachusetts en 1917. Il a reçu son B.S (Bachelor). du Massachusetts State College en 1939. Il a ensuite déménagé à l'Université Harvard où il a obtenu un M.S.(Master) en 1940 et Ph.D.(un Doctorat ). En 1942, après avoir obtenu son diplôme, il a servi dans l'armée des États-Unis de 1942 à 1946. En 1947, il a rejoint l'équipe de l'Herbarium Grey à Harvard. En 1948, il a déménagé à l'Hortorium L.H.Bailey à Cornell en tant que professeur adjoint de botanique. Il a été nommé professeur agrégé en 1951 et professeur titulaire en 1960. De 1960 à 1969, il a été directeur de l'herbier et a été nommé professeur de botanique Bailey en 1978. Bien qu'il soit surtout connu pour son travail sur les palmiers, Moore a également contribué l'étude des Gesneriaceae, des Geraniaceae, des Amaryllidaceae, des Cucurbitaceae et des Commelinaceae.
